--- a/RNN_python/output_data_test/seq2seq_error_gauss.xlsx
+++ b/RNN_python/output_data_test/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-52.73611769415856</v>
+        <v>-51.90563345803881</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-57.24824140870254</v>
+        <v>-56.74215703858299</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-61.43067398010955</v>
+        <v>-84.19987088924043</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-54.00749492141196</v>
+        <v>-66.50468431702785</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.02810281654629</v>
+        <v>-93.94777085304561</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.15072980036986</v>
+        <v>-52.17981868763826</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-52.7223021061033</v>
+        <v>-51.80478863869909</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.24282696861397</v>
+        <v>-53.44554828650078</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.82060325039998</v>
+        <v>-64.34283806191814</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-52.09690655181176</v>
+        <v>-60.07299362614901</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-55.76350195151696</v>
+        <v>-52.18378650608764</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-50.7565844922012</v>
+        <v>-51.52355634734825</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-55.98362151408637</v>
+        <v>-54.28424871251083</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.91313019518955</v>
+        <v>-56.01089740773528</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.75080988933408</v>
+        <v>-51.17032495913858</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.69788938664195</v>
+        <v>-52.28527670012259</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-51.75226538320393</v>
+        <v>-56.11435390249589</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-54.35711751436684</v>
+        <v>-65.65905297609864</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-52.43269937108204</v>
+        <v>-59.49528178926359</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-52.57359476183299</v>
+        <v>-53.22045095638964</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-51.67646855884799</v>
+        <v>-50.654776674899</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-52.52344165802533</v>
+        <v>-52.05256864511063</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-55.9609085726383</v>
+        <v>-50.97894190871342</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-52.20615698994185</v>
+        <v>-52.03127943631748</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-54.06179066753648</v>
+        <v>-58.03639386355958</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-56.09219298394873</v>
+        <v>-74.45735969181277</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-59.82526394498335</v>
+        <v>-59.1923899146654</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-56.18676305177667</v>
+        <v>-61.15262419370742</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-54.02145986854024</v>
+        <v>-57.41880224902872</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-53.6166913429587</v>
+        <v>-52.34606404141212</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-50.86517676303646</v>
+        <v>-63.87305529722098</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-50.7218397443073</v>
+        <v>-51.6838230064854</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-53.11741335500358</v>
+        <v>-53.91589202829917</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-51.0934703104701</v>
+        <v>-53.45373876923787</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-50.9964415191035</v>
+        <v>-58.009011840751</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-52.65008591999884</v>
+        <v>-70.24526774554361</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-51.43701163519914</v>
+        <v>-59.60970764852846</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-51.71104089602038</v>
+        <v>-60.47468904631482</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-51.60086712099855</v>
+        <v>-62.80464476299137</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-54.46143182725471</v>
+        <v>-52.68776566380347</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-54.95693001387751</v>
+        <v>-56.59964628073432</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-51.93619725505263</v>
+        <v>-51.5296797017561</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-51.633134893019</v>
+        <v>-76.80879474708915</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-52.68657071229718</v>
+        <v>-102.9694363309388</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-50.9886262462861</v>
+        <v>-153.1435169788334</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-52.27317415172102</v>
+        <v>-50.9356997596845</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-50.98632744286119</v>
+        <v>-53.80544475813079</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-50.96399777416276</v>
+        <v>-51.3115009306212</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-52.64944020594318</v>
+        <v>-59.76283931158305</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-57.10699628793022</v>
+        <v>-65.66669051186098</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-53.3300967280264</v>
+        <v>-60.81544760887363</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-58.07920991286091</v>
+        <v>-58.74151103834486</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-57.25431890411239</v>
+        <v>-69.08348398215709</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-59.06484335831311</v>
+        <v>-62.25197164403293</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-53.73645404840364</v>
+        <v>-151.2368350813534</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-60.50356048321041</v>
+        <v>-51.79220420876261</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-55.3262061605861</v>
+        <v>-74.60462928609881</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-52.4521487683197</v>
+        <v>-68.6772535319101</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-51.27232100697662</v>
+        <v>-53.35682770380889</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-54.19620698994741</v>
+        <v>-52.45661566998179</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-54.03470810430802</v>
+        <v>-51.62205919516305</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-53.38732438579332</v>
+        <v>-52.88733478188101</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-52.33501308002104</v>
+        <v>-51.90794849875842</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-52.56404088283651</v>
+        <v>-55.55027873106611</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-52.39925851807921</v>
+        <v>-61.60370346057303</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-58.86901148187498</v>
+        <v>-77.4118189948732</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-51.72717635600652</v>
+        <v>-63.71875139282336</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-54.5020012263219</v>
+        <v>-50.81508840773937</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-51.76556467118752</v>
+        <v>-73.63822128102576</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-52.35848542353055</v>
+        <v>-51.95887028914225</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-51.12469786316693</v>
+        <v>-51.76426699881995</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.68479943955975</v>
+        <v>-50.84404851138319</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-54.95107315172663</v>
+        <v>-55.51897448816447</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-52.30780075341313</v>
+        <v>-96.78251093381974</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.54948250099958</v>
+        <v>-50.63603119469245</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-53.77432749253083</v>
+        <v>-57.23668521394477</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-64.53800505780561</v>
+        <v>-51.59647456197818</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-56.05563287704889</v>
+        <v>-64.60956460416746</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-51.79969517098557</v>
+        <v>-50.85332828256222</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-52.30989146508905</v>
+        <v>-84.26855977663689</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.89186117574602</v>
+        <v>-59.80857384675489</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-52.17982092403064</v>
+        <v>-62.83898454466524</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-71.27979233828337</v>
+        <v>-71.56449659093262</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-51.75269205490412</v>
+        <v>-62.5327775479609</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-51.84567531088727</v>
+        <v>-57.81842117466496</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-52.3214198917851</v>
+        <v>-71.47413419892587</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-54.38333678476072</v>
+        <v>-57.87277576215602</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-58.17027190262851</v>
+        <v>-54.25939131781544</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-51.04580376058004</v>
+        <v>-52.55821093715421</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-51.63589926647951</v>
+        <v>-50.89664832175038</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-52.02494930113813</v>
+        <v>-50.91097443031816</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-51.90604014749313</v>
+        <v>-213.8377195108476</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-53.80967312469492</v>
+        <v>-60.93897501850876</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-51.51218141904164</v>
+        <v>-52.67572876867579</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-65.67472719868138</v>
+        <v>-64.43248544667863</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-51.78667253028183</v>
+        <v>-59.43061160820943</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-52.36352480745737</v>
+        <v>-55.68878138754702</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-51.53680706182754</v>
+        <v>-62.27052632094995</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-52.50597766598281</v>
+        <v>-72.19448988994228</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-51.33796527413474</v>
+        <v>-66.76753415549005</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-50.78482102316878</v>
+        <v>-51.05664383181966</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-51.55283400330259</v>
+        <v>-57.15074148110534</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-54.69655799819297</v>
+        <v>-60.39782679884288</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.61028096818519</v>
+        <v>-51.31385662885162</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-51.41903874907968</v>
+        <v>-126.383178496551</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-56.69118401628571</v>
+        <v>-61.8490886451883</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-51.16162905427657</v>
+        <v>-51.01154937620208</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-51.12921896731653</v>
+        <v>-66.42664224232867</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-58.5847108464109</v>
+        <v>-60.52341463130654</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-51.4107068021413</v>
+        <v>-55.97145261592973</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-51.11623748940175</v>
+        <v>-57.26757420226206</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-50.96727795415517</v>
+        <v>-69.64293043812843</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-50.72050638834934</v>
+        <v>-193.6071802965997</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-57.01905023154038</v>
+        <v>-51.28553637868229</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-53.05020778678166</v>
+        <v>-303.2208842234479</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-59.70692810551298</v>
+        <v>-68.19763179267966</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-54.51183124792477</v>
+        <v>-68.10166497260811</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-56.0956974954129</v>
+        <v>-56.44785785350732</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-51.3769529661634</v>
+        <v>-53.29288417370253</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-59.2202516368793</v>
+        <v>-53.06079475335981</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-50.91622943629532</v>
+        <v>-66.70404795771411</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-64.24664010754105</v>
+        <v>-51.68961100940634</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-52.67518336395845</v>
+        <v>-51.44920658902771</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-56.20810274307215</v>
+        <v>-65.15994854200166</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-52.43031802662699</v>
+        <v>-59.6273436792572</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-51.14070115341602</v>
+        <v>-62.78066447431392</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-53.25893644732171</v>
+        <v>-65.5159446938399</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-51.50281349216607</v>
+        <v>-53.9766514091092</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-52.01769105333253</v>
+        <v>-53.06274839671421</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-52.64881655975393</v>
+        <v>-61.96347544025367</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-53.19973554389639</v>
+        <v>-234.9482952126854</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-51.36442823313033</v>
+        <v>-63.66764438070411</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-52.52532463091519</v>
+        <v>-61.83640652953321</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-51.64258087877824</v>
+        <v>-59.3159216518572</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-50.80135253055641</v>
+        <v>-123.7358145211979</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-51.15823337777167</v>
+        <v>-51.30017293669585</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-52.22490856028379</v>
+        <v>-54.85733869372879</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-60.06617359842326</v>
+        <v>-51.39429181462893</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-52.01256130722729</v>
+        <v>-51.06190150135947</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-51.7824508869173</v>
+        <v>-75.04747055862448</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-55.66687460716523</v>
+        <v>-59.19883028197726</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-54.53357008059609</v>
+        <v>-53.45768902003463</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-51.34648656799173</v>
+        <v>-54.71376181422146</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-51.92567333425379</v>
+        <v>-51.55652601638927</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-52.42203224938249</v>
+        <v>-57.10204193101316</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-53.10948112274177</v>
+        <v>-62.43324316368397</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-52.37886641826697</v>
+        <v>-61.06425027175952</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-52.80224657818406</v>
+        <v>-56.99573865414769</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-51.92839496257995</v>
+        <v>-54.60838203476716</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-51.96223100513411</v>
+        <v>-52.92759097937527</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/seq2seq_error_gauss.xlsx
+++ b/RNN_python/output_data_test/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-51.90563345803881</v>
+        <v>-52.05248549555429</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-56.74215703858299</v>
+        <v>-56.96480165800171</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-84.19987088924043</v>
+        <v>-57.07271167943243</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-66.50468431702785</v>
+        <v>-51.27676886768636</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-93.94777085304561</v>
+        <v>-56.22841105367831</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.17981868763826</v>
+        <v>-51.57680101723115</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.80478863869909</v>
+        <v>-69.97388045379635</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-53.44554828650078</v>
+        <v>-59.60205798421336</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-64.34283806191814</v>
+        <v>-51.72125612406183</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-60.07299362614901</v>
+        <v>-51.2751841799953</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-52.18378650608764</v>
+        <v>-51.6555107925117</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-51.52355634734825</v>
+        <v>-50.65758256085123</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-54.28424871251083</v>
+        <v>-50.64309115262282</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-56.01089740773528</v>
+        <v>-51.28378153601921</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.17032495913858</v>
+        <v>-52.62293418594683</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-52.28527670012259</v>
+        <v>-70.79371447881665</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-56.11435390249589</v>
+        <v>-51.01359740980938</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-65.65905297609864</v>
+        <v>-51.20867558147223</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-59.49528178926359</v>
+        <v>-51.03931338327565</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-53.22045095638964</v>
+        <v>-50.68140352674309</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.654776674899</v>
+        <v>-51.21199045073812</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-52.05256864511063</v>
+        <v>-50.90842654885049</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-50.97894190871342</v>
+        <v>-52.08266897357564</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-52.03127943631748</v>
+        <v>-57.89052008997865</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-58.03639386355958</v>
+        <v>-53.14901884277541</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-74.45735969181277</v>
+        <v>-60.19691766846773</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-59.1923899146654</v>
+        <v>-50.90202756941</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-61.15262419370742</v>
+        <v>-52.13285925267302</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-57.41880224902872</v>
+        <v>-51.10828329632354</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-52.34606404141212</v>
+        <v>-50.89842993425787</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-63.87305529722098</v>
+        <v>-50.88556003679668</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-51.6838230064854</v>
+        <v>-50.60801247087205</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-53.91589202829917</v>
+        <v>-51.02314953024802</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-53.45373876923787</v>
+        <v>-50.94568335668136</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-58.009011840751</v>
+        <v>-51.70163750048232</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-70.24526774554361</v>
+        <v>-50.95579194336069</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-59.60970764852846</v>
+        <v>-50.99252136299884</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-60.47468904631482</v>
+        <v>-50.96837392659383</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-62.80464476299137</v>
+        <v>-50.80212905911056</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-52.68776566380347</v>
+        <v>-52.46135831735818</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-56.59964628073432</v>
+        <v>-50.88878822577755</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-51.5296797017561</v>
+        <v>-51.00103269426248</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-76.80879474708915</v>
+        <v>-81.87456449149889</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-102.9694363309388</v>
+        <v>-50.84462539699171</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-153.1435169788334</v>
+        <v>-50.81336050201316</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.9356997596845</v>
+        <v>-79.19674941989238</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-53.80544475813079</v>
+        <v>-74.83121405782302</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-51.3115009306212</v>
+        <v>-50.84602331426682</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-59.76283931158305</v>
+        <v>-52.58023868222943</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-65.66669051186098</v>
+        <v>-53.9606357978277</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-60.81544760887363</v>
+        <v>-53.21028354027394</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-58.74151103834486</v>
+        <v>-57.68195815806404</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-69.08348398215709</v>
+        <v>-54.08970064305504</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-62.25197164403293</v>
+        <v>-54.43461899998685</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-151.2368350813534</v>
+        <v>-53.39459974553164</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-51.79220420876261</v>
+        <v>-53.7422311222834</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-74.60462928609881</v>
+        <v>-57.39505188981066</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-68.6772535319101</v>
+        <v>-52.52779569974205</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-53.35682770380889</v>
+        <v>-50.83671138824387</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-52.45661566998179</v>
+        <v>-52.00397665838064</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-51.62205919516305</v>
+        <v>-51.46592676353612</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-52.88733478188101</v>
+        <v>-51.12207754800569</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-51.90794849875842</v>
+        <v>-51.08726820887121</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-55.55027873106611</v>
+        <v>-50.95323553975027</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-61.60370346057303</v>
+        <v>-50.62734816586018</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-77.4118189948732</v>
+        <v>-50.67991003599533</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-63.71875139282336</v>
+        <v>-54.92299123810851</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-50.81508840773937</v>
+        <v>-50.5734720640509</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-73.63822128102576</v>
+        <v>-62.58763988429517</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-51.95887028914225</v>
+        <v>-50.68271246353944</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-51.76426699881995</v>
+        <v>-50.82867073692695</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.84404851138319</v>
+        <v>-50.68226593182952</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-55.51897448816447</v>
+        <v>-51.33360127215754</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-96.78251093381974</v>
+        <v>-50.76573694590961</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.63603119469245</v>
+        <v>-59.43445726384017</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-57.23668521394477</v>
+        <v>-51.01937202896694</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-51.59647456197818</v>
+        <v>-50.58211678563271</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-64.60956460416746</v>
+        <v>-63.1396892917596</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.85332828256222</v>
+        <v>-50.6073153036409</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-84.26855977663689</v>
+        <v>-59.08665232002268</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-59.80857384675489</v>
+        <v>-51.25950110821725</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-62.83898454466524</v>
+        <v>-50.63537170279393</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-71.56449659093262</v>
+        <v>-74.24927770470759</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-62.5327775479609</v>
+        <v>-52.87508279174007</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-57.81842117466496</v>
+        <v>-51.14147303343545</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-71.47413419892587</v>
+        <v>-51.52596941671595</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-57.87277576215602</v>
+        <v>-51.80242608236438</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-54.25939131781544</v>
+        <v>-51.60006059352217</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-52.55821093715421</v>
+        <v>-51.6577206276698</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-50.89664832175038</v>
+        <v>-50.76752208379783</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.91097443031816</v>
+        <v>-51.72943420147365</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-213.8377195108476</v>
+        <v>-50.84272008159165</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-60.93897501850876</v>
+        <v>-50.9226701676567</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-52.67572876867579</v>
+        <v>-50.99557155058508</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-64.43248544667863</v>
+        <v>-65.62765676194445</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-59.43061160820943</v>
+        <v>-50.85465917866762</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-55.68878138754702</v>
+        <v>-51.62476109302553</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-62.27052632094995</v>
+        <v>-50.51010485686359</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-72.19448988994228</v>
+        <v>-53.17999470051323</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-66.76753415549005</v>
+        <v>-75.81002913272424</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-51.05664383181966</v>
+        <v>-50.96404543403921</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-57.15074148110534</v>
+        <v>-52.08589133780143</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-60.39782679884288</v>
+        <v>-51.35909257896576</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.31385662885162</v>
+        <v>-51.14421902754178</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-126.383178496551</v>
+        <v>-51.90164133717375</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-61.8490886451883</v>
+        <v>-55.01787028936051</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-51.01154937620208</v>
+        <v>-52.94372414995153</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-66.42664224232867</v>
+        <v>-50.73421714443911</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-60.52341463130654</v>
+        <v>-50.51006169366784</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-55.97145261592973</v>
+        <v>-51.40734337309783</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-57.26757420226206</v>
+        <v>-50.62568820881034</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-69.64293043812843</v>
+        <v>-50.72988269068968</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-193.6071802965997</v>
+        <v>-50.72919670573243</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-51.28553637868229</v>
+        <v>-50.62354347482602</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-303.2208842234479</v>
+        <v>-54.0183854632238</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-68.19763179267966</v>
+        <v>-59.34559985779845</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-68.10166497260811</v>
+        <v>-54.9397925893572</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-56.44785785350732</v>
+        <v>-52.4344960072527</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-53.29288417370253</v>
+        <v>-56.59867963573242</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-53.06079475335981</v>
+        <v>-50.68714182559342</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-66.70404795771411</v>
+        <v>-50.76042070381144</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-51.68961100940634</v>
+        <v>-51.77820392654321</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-51.44920658902771</v>
+        <v>-50.7927004243546</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-65.15994854200166</v>
+        <v>-50.83844769801591</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-59.6273436792572</v>
+        <v>-50.4823357705245</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-62.78066447431392</v>
+        <v>-51.6069862878952</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-65.5159446938399</v>
+        <v>-50.65084926982779</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-53.9766514091092</v>
+        <v>-52.01639106997149</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-53.06274839671421</v>
+        <v>-51.61494181813453</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-61.96347544025367</v>
+        <v>-50.82401249449859</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-234.9482952126854</v>
+        <v>-52.23987366239615</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-63.66764438070411</v>
+        <v>-51.11864023206806</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-61.83640652953321</v>
+        <v>-51.80646958724035</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-59.3159216518572</v>
+        <v>-51.31882808309333</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-123.7358145211979</v>
+        <v>-50.67667483925393</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-51.30017293669585</v>
+        <v>-50.81520246426177</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-54.85733869372879</v>
+        <v>-52.42199813106764</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-51.39429181462893</v>
+        <v>-50.48916644095215</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-51.06190150135947</v>
+        <v>-50.95591335428382</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-75.04747055862448</v>
+        <v>-50.55715376055966</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-59.19883028197726</v>
+        <v>-61.29732615640042</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-53.45768902003463</v>
+        <v>-51.98956832939169</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-54.71376181422146</v>
+        <v>-51.17652081241469</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-51.55652601638927</v>
+        <v>-50.83526816840634</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-57.10204193101316</v>
+        <v>-51.11340352042217</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-62.43324316368397</v>
+        <v>-52.66381962938654</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-61.06425027175952</v>
+        <v>-51.57442222135358</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-56.99573865414769</v>
+        <v>-51.26325376844307</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-54.60838203476716</v>
+        <v>-51.06786592293513</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-52.92759097937527</v>
+        <v>-51.69130984302223</v>
       </c>
     </row>
   </sheetData>
